--- a/data/raw/Convite para participar de pesquisa - validação questionário - FASE 3(1-52).xlsx
+++ b/data/raw/Convite para participar de pesquisa - validação questionário - FASE 3(1-52).xlsx
@@ -10283,7 +10283,7 @@
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R1b9ed3bca58b490d"/>
+    <x:tablePart r:id="R56f91ff9b4d6461c"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/data/raw/Convite para participar de pesquisa - validação questionário - FASE 3(1-52).xlsx
+++ b/data/raw/Convite para participar de pesquisa - validação questionário - FASE 3(1-52).xlsx
@@ -10283,7 +10283,7 @@
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R56f91ff9b4d6461c"/>
+    <x:tablePart r:id="R1b9ed3bca58b490d"/>
   </x:tableParts>
 </x:worksheet>
 </file>